--- a/biology/Médecine/So_Much_for_So_Little/So_Much_for_So_Little.xlsx
+++ b/biology/Médecine/So_Much_for_So_Little/So_Much_for_So_Little.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 So Much for So Little (En pleine santé en VF) est un film d'animation américain réalisé par Chuck Jones et sorti en 1949.
-Il remporte l'Oscar du meilleur court métrage documentaire en 1950, ex-aequo avec A Chance to Live[1].
+Il remporte l'Oscar du meilleur court métrage documentaire en 1950, ex-aequo avec A Chance to Live.
 Financé par le gouvernent américain, il est placé dans le domaine public. 
-Il a été préservé par l'Académie des Oscars en 2005[2].
-Produit durant la présidence d'Harry S. Truman pour sensibiliser à la prévention dans le domaine de la santé, il est de nouveau d'actualité sous l'administration de Donald Trump 70 ans plus tard[3].
+Il a été préservé par l'Académie des Oscars en 2005.
+Produit durant la présidence d'Harry S. Truman pour sensibiliser à la prévention dans le domaine de la santé, il est de nouveau d'actualité sous l'administration de Donald Trump 70 ans plus tard.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film indique en introduction que chaque année sur près de 2,7 millions de naissances aux États-Unis, 118 481 bébés  meurent avant d'atteindre leur premier anniversaire. Des mesures d'hygiène et de santé publique sont présentées, applicables à différentes phases de la vie de John E. Jones, le personnage principal du dessin animé.
 </t>
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Chuck Jones
 Scénario : Friz Freleng
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Version Originale 
 Mel Blanc : voix
@@ -618,7 +636,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1950 : Oscar du meilleur court métrage documentaire</t>
         </is>
